--- a/medicine/Mort/Décès_en_1932/Décès_en_1932.xlsx
+++ b/medicine/Mort/Décès_en_1932/Décès_en_1932.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1932</t>
+          <t>Décès_en_1932</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1932</t>
+          <t>Décès_en_1932</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Louis de Caters, écrivain et propriétaire de haras français (° 1856).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Louis de Caters, écrivain et propriétaire de haras français (° 1856).
 Jules-Justin Claverie, peintre paysagiste français (° 6 juin 1859).
 Charles-Julien Clément, peintre et graveur sur bois français (° 1er octobre 1868).
 Georges Charles Coudray, sculpteur et médailleur, (° 31 janvier 1862)
@@ -538,34 +555,170 @@
 Lucien Métivet, peintre, affichiste et illustrateur français (° 19 janvier 1863).
 Paul Nauen, peintre allemand (° 6 décembre 1859).
 Napoleone Parisani, peintre italien (° 1854).
-Charles Wislin, peintre français (° 1852).
-Janvier
-6 janvier : André Maginot, homme politique français (° 17 février 1877).
+Charles Wislin, peintre français (° 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 janvier : André Maginot, homme politique français (° 17 février 1877).
 9 janvier : Amédée Dubois de La Patellière, peintre français (° 5 juillet 1890).
 14 janvier : Litri (Miguel Báez Quintero), matador espagnol (° 15 mai 1869).
 25 janvier :
 Roman Jarosz, peintre polonais (° 1888).
 Pēteris Stučka, avocat et homme politique letton puis soviétique (° 26 juillet 1865).
-29 janvier : Pierre Carrier-Belleuse,  peintre français (° 28 janvier 1851).
-Février
-3 février :
+29 janvier : Pierre Carrier-Belleuse,  peintre français (° 28 janvier 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février :
 Julian Bourdeu, homme politique argentin (° 4 novembre 1870).
 Lucien Chevaillier, pianiste, compositeur et critique musical français (° 21 août 1883).
 6 février :
 Hermann Ottomar Herzog, peintre allemand (° 15 novembre 1832).
 Armand Point, peintre français (° 23 mars 1861).
 23 février : Julieta Lanteri, femme politique et féministe italo-argentine (° 22 mars 1873).
-27 février : Victor Hamm, pilote français, pionnier de l'aéropostale (° 12 mars 1894).
-Mars
-2 mars : Charles Barbantan, peintre français (° 22 septembre 1845).
+27 février : Victor Hamm, pilote français, pionnier de l'aéropostale (° 12 mars 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Charles Barbantan, peintre français (° 22 septembre 1845).
 3 mars : Eugen d’Albert, compositeur et pianiste allemand (° 10 avril 1864).
 5 mars : Zéphirin Camélinat : homme politique français (° 14 septembre 1840).
 6 mars : Joseph-Hormisdas Legris, politicien québécois (° 6 mai 1850).
 7 mars : Aristide Briand, homme politique français, Président du Conseil (° 28 mars 1862).
 11 mars : Dora Carrington, peintre et décoratrice britannique (° 29 mars 1893).
-17 mars : Ilias Bey Vrioni, homme politique et diplomate albanais (° 1882).
-Avril
-4 avril :
+17 mars : Ilias Bey Vrioni, homme politique et diplomate albanais (° 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 avril :
 Ottokar Czernin, diplomate et homme politique autichien (° 26 septembre 1872).
 Wilhelm Ostwald, chimiste allemand (° 2 septembre 1853).
 5 avril : Emil Kreplin, fonctionnaire colonial et entrepreneur allemand (° 5 juillet 1871).
@@ -574,9 +727,43 @@
 23 avril :
 Giovanni Cingolani, peintre et restaurateur artistique italien (° 1859).
 Jean-Pierre Laurens, peintre français (° 18 mars 1875).
-25 avril : Albert Rigolot, peintre français (° 28 novembre 1862).
-Mai
-3 mai : Charles Hoy Fort, écrivain américain et chercheur paranormal (° 9 août 1874).
+25 avril : Albert Rigolot, peintre français (° 28 novembre 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai : Charles Hoy Fort, écrivain américain et chercheur paranormal (° 9 août 1874).
 6 mai :
 Roméo Beaudry, producteur, auteur et musicien québécois (° 25 février 1882).
 Ludwig Rottenberg, compositeur et chef d'orchestre allemand/autrichien (° 11 octobre 1864).
@@ -588,9 +775,43 @@
 19 mai : Louis Prat, peintre et graveur français (° 19 février 1879).
 20 mai : María Angélica Pérez, religieuse argentine, bienheureuse (° 17 août 1897).
 28 mai : Jacqueline Marval, peintre française (° 19 octobre 1866).
-29 mai : Emma Nallet-Poussin, peintre et sculptrice française (° 17 août 1853).
-Juin
-1er juin : Marcelle Tiard, espérantiste française (° 18 juin 1861).
+29 mai : Emma Nallet-Poussin, peintre et sculptrice française (° 17 août 1853).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Marcelle Tiard, espérantiste française (° 18 juin 1861).
 6 juin : Omer Verschoore, coureur cycliste belge (° 2 décembre 1888).
 8 juin :
 Liu Tianhua, musicien et compositeur chinois (° 4 février 1895).*
@@ -605,27 +826,129 @@
 Nicolae Vermont, peintre roumain (° 18 octobre 1866).
 16 juin : Otto Böckler, écrivain et homme politique allemand (° 23 juin 1867).
 21 juin : Major Taylor, coureur cycliste américain (° 26 novembre 1878).
-25 juin : David Dellepiane, peintre et lithographe français (° 16 octobre 1866).
-Juillet
-3 juillet : Joseph Eysséric, peintre français (° 20 novembre 1860).
+25 juin : David Dellepiane, peintre et lithographe français (° 16 octobre 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet : Joseph Eysséric, peintre français (° 20 novembre 1860).
 6 juillet : Henry Perrault, peintre français (° 13 avril 1867).
 11 juillet : Lucien Lesna, coureur cycliste français (° 11 octobre 1863).
 13 juillet : Katrín Magnússon, femme politique islandaise (° 18 mars 1858).
 14 juillet : Carl Felber, peintre helvético-allemand (° 21 septembre 1880).
 18 juillet : Marius Bauer, peintre, lithographe et graveur néerlandais (° 25 janvier 1867).
 21 juillet : Emilio Prud'Homme, avocat, homme politique, écrivain et enseignant dominicain (° 20 août 1856).
-23 juillet : Alberto Santos-Dumont, aéronaute brésilien (° 20 juillet 1873).
-Août
-7 août : Napoléon Antoine Belcourt, politicien canadien (° 15 septembre 1860).
+23 juillet : Alberto Santos-Dumont, aéronaute brésilien (° 20 juillet 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7 août : Napoléon Antoine Belcourt, politicien canadien (° 15 septembre 1860).
 9 août : John Charles Fields, mathématicien canadien (° 14 mai 1863).
 10 août : Rintintin, acteur canin (° septembre 1918).
 19 août :
 Louis Anquetin, peintre, dessinateur et aquarelliste français (° 26 janvier 1861).
 Richard Schmitz, officier de police et homme d'État austro-hongrois puis autrichien (° 14 novembre 1874).
 21 août : Frederick Corder, compositeur et professeur de composition britannique (° 26 janvier 1852).
-26 août : Gustave Pessard, historien de Paris et compositeur (° 17 novembre 1846).
-Septembre
-7 septembre : Ernst Nevanlinna, professeur d'économie et homme politique finlandais (° 10 mai 1873).
+26 août : Gustave Pessard, historien de Paris et compositeur (° 17 novembre 1846).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7 septembre : Ernst Nevanlinna, professeur d'économie et homme politique finlandais (° 10 mai 1873).
 11 septembre : André Dahl, journaliste, écrivain et directeur de théâtre français (° 6 février 1886).
 13 septembre :  Julius Röntgen, pianiste et compositeur germano-néerlandais (° 9 mai 1855).
 14 septembre : Jean Cras, officier de marine et compositeur français (° 22 mai 1879).
@@ -633,9 +956,43 @@
 20 septembre : Max Slevogt, peintre, graphiste et dessinateur allemand (° 8 octobre 1868).
 23 septembre : Jules Chéret, peintre et lithographe français (° 1er juin 1836).
 26 septembre : Pierre Degeyter, ouvrier et musicien belge célèbre pour avoir composé la musique de L'Internationale (° 8 octobre 1848).
-28 septembre : Emil Orlik, peintre, graveur, lithographe et illustrateur austro-hongrois puis allemand (° 21 juillet 1870).
-Octobre
-3 octobre : Giulio Aristide Sartorio, peintre italien (° 11 février 1860).
+28 septembre : Emil Orlik, peintre, graveur, lithographe et illustrateur austro-hongrois puis allemand (° 21 juillet 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : Giulio Aristide Sartorio, peintre italien (° 11 février 1860).
 5 octobre : William Jelley, peintre, sculpteur, poète et architecte belge (° 16 octobre 1856).
 7 octobre : Eugène Broerman, peintre belge (° 12 juillet 1861).
 12 octobre : Germain David-Nillet, peintre de genre français (° 4 décembre 1861).
@@ -649,17 +1006,85 @@
 Reveriano Soutullo, compositeur espagnol de zarzuelas (° 11 juillet 1880).
 31 octobre :
 Arturo Ferrari, peintre italien (° 26 janvier 1861).
-Charles Terront, coureur cycliste français (° 25 avril 1857).
-Novembre
-1er novembre : Tadeusz Makowski, peintre polonais (° 21 janvier 1882).
+Charles Terront, coureur cycliste français (° 25 avril 1857).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Tadeusz Makowski, peintre polonais (° 21 janvier 1882).
 3 novembre : André Mare, décorateur, architecte d’intérieur et peintre français (° 31 janvier 1885).
 7 novembre : Gottfried de Hohenlohe-Schillingsfürst, général et diplomate austro-hongrois puis autrichien (° 8 novembre 1867).
 16 novembre : Adélard Riverin,  médecin et homme politique canadien (° 16 mars 1868).
 17 novembre : Albert Bettannier, peintre français (° 12 août 1851).
 23 novembre : Percy Pitt, compositeur, chef d'orchestre, pianiste et organiste britannique (° 4 janvier 1870).
-29 novembre : Emilio Longoni, peintre italien (° 9 juillet 1859).
-Décembre
-2 décembre : Amadeu Vives i Roig, compositeur espagnol (° 18 novembre 1871).
+29 novembre : Emilio Longoni, peintre italien (° 9 juillet 1859).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1932</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1932</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Amadeu Vives i Roig, compositeur espagnol (° 18 novembre 1871).
 13 décembre : Georgios Jakobides, peintre grec (° 11 janvier 1853).
 15 décembre : Petrus Johannes Arendzen, graveur, dessinateur et peintre de portraits néerlandais (° 23 octobre 1846).
 19 décembre : Johan Krouthén, peintre suédois (° 2 novembre 1858).
